--- a/QueryReport/excelTemplate/Temple_Employeepivotableaaaaaaaa_20200220120000.xlsx
+++ b/QueryReport/excelTemplate/Temple_Employeepivotableaaaaaaaa_20200220120000.xlsx
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:fonts count="12">
+  <x:fonts count="14">
     <x:font>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -360,13 +360,29 @@
       <x:b/>
       <x:color rgb="000000"/>
     </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:color rgb="000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Microsoft YaHei"/>
+      <x:sz val="11"/>
+      <x:b/>
+      <x:color rgb="000000"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="6">
+  <x:fills count="7">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF"/>
+      </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
@@ -403,7 +419,7 @@
       <x:alignment vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="23">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -433,6 +449,10 @@
     <x:xf fontId="10" borderId="0" applyFont="1"/>
     <x:xf fontId="10" fillId="5" borderId="0" applyFont="1" applyFill="1"/>
     <x:xf fontId="11" borderId="0" applyFont="1"/>
+    <x:xf fontId="12" borderId="0" applyFont="1"/>
+    <x:xf fontId="12" fillId="6" borderId="0" applyFont="1" applyFill="1"/>
+    <x:xf fontId="13" borderId="0" applyFont="1"/>
+    <x:xf numFmtId="14" fontId="12" borderId="0" applyNumberFormat="1" applyFont="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,120 +1317,3011 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1">
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Contract Description</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Staff Number</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>English Name</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Zone Name</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Position Name</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Join Date</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Year of Service</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Annual Leave Class</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Holiday Type</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Employment Type</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Basic Salary</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Pay Scale Point</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>PayScale Scheme</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Commence Date</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Terminate Date</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Staff Status</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Part Time</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>SecurityGroupID</x:v>
       </x:c>
-      <x:c s="18" t="str">
+      <x:c s="21" t="str">
         <x:v>Securtiy Group</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c s="16" t="str">
-        <x:v>Data World Solutions Ltd</x:v>
-      </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
         <x:v>AA100002</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
         <x:v>Test One</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
         <x:v>Unit A</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
         <x:v>保健員</x:v>
       </x:c>
-      <x:c s="16" t="d">
+      <x:c s="22" t="d">
         <x:v>2019-07-15T00:00:00.0000000</x:v>
       </x:c>
-      <x:c s="16" t="n">
+      <x:c s="19" t="n">
         <x:v>0.6055</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
         <x:v>AL07</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
         <x:v>Bank Holiday</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
         <x:v>Monthly</x:v>
       </x:c>
-      <x:c s="16" t="n">
+      <x:c s="19" t="n">
         <x:v>12000</x:v>
       </x:c>
-      <x:c s="16" t="n">
-        <x:v/>
-      </x:c>
-      <x:c s="16" t="str">
-        <x:v/>
-      </x:c>
-      <x:c s="16" t="d">
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
         <x:v>2019-07-15T00:00:00.0000000</x:v>
       </x:c>
-      <x:c s="16" t="d">
+      <x:c s="22" t="d">
         <x:v>2045-01-01T00:00:00.0000000</x:v>
       </x:c>
-      <x:c s="16" t="str">
-        <x:v>Active</x:v>
-      </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
         <x:v>No</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
         <x:v>39</x:v>
       </x:c>
-      <x:c s="16" t="str">
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AA100003</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS 190808</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-05-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>0.811</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>7000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-05-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AA100818</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Tai man 10</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CARE WORKER 護理員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-10-11T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>0.3644</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-10-11T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2020-10-11T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AA100819</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>demo 191028</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>0.3918</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>15730</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AA100820</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS 191108</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CARE WORKER 護理員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>0.3068</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>17080</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AA100821</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Sheung Foon Lok</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLP</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-10-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>0.389</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-10-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2022-10-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S30163</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Wong Kam Tim</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit Incharge</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2010-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>9.9781</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL16</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>47075</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-08-14T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2039-02-20T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S30171</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Ka Man</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>SOCIAL WORKER 社會工作員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2011-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>8.3918</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL10</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>61170</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2020-08-31T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31609</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Fai</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>22005</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-08-14T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2034-05-05T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31610</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Shun</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-12-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2046-06-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31611</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Hang</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>主任</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>30020</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-04-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2048-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31612</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Ka</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>OFFICER 主任</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>39554</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-04-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2048-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31613</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Wong Chi Man</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>EXECUTIVE DIRECTOR 總幹事</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>73700</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2040-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31614</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Lau Wah</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>福利服務助理</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-01-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4.1315</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-08-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2053-05-25T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31629</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Lee Siu</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-07-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.6356</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-07-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31630</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>LAM Lai Wo</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>護理員 Personal Care  Worker</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.4603</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2033-09-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31631</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Lau Kin Fai</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>護理員 Personal Care  Worker</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.4603</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Daily</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-09-06T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2046-10-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31632</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>LAU LEI CHEONG</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>護理員 Personal Care  Worker</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-09-07T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.4575</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-09-07T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31633</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>WONG Ka Wai</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MISC 打雜</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.474</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Daily</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2061-05-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31636</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Man Hung</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.9781</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL10</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2037-02-03T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31639</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>WOO Tsz Ching</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>RELIEF WORKER 支援人員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-10-20T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.3397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-10-20T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2100-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31640</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Lau Li Chun</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MISC 打雜</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.137</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2041-04-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31641</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Wong Li Chun</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.137</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2053-08-08T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31642</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Siu Fong</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLERK 文員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.137</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>9000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2040-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31643</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Li Chun</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.137</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31644</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Cheung Li Chun</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.137</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2041-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31645</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Siu Li</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.137</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL0</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2050-12-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yes</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31646</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Li Yim Fong2</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-11-28T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.2329</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Hourly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-11-28T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2053-04-07T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31647</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan guan guan</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2015-11-15T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4.2685</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-09-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CARE</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31648</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Lau Mei Lan</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit C</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>CLEANER 清潔員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.0548</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>6000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2053-03-22T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>TST</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31649</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Chi Man</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>福利服務助理</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-03-08T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>1.9589</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>20650</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-03-08T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31651</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Tai Man, Peter</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Project Executive</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2016-11-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>3.2822</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>30320</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>MPS</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-11-10T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31652</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Wong Siu Ming, John</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>HR Admin</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2015-02-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>5.0466</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL07</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>40300</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2015-02-04T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2047-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>User</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31655</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Wong Chung</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Senior Social  资深社工</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2012-05-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>7.8082</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>26000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2012-05-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2053-02-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31657</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Wong Tai Man</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>HR manager</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>1.3068</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>45000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2043-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2099-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>General Office</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31658</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Leung Mai Mai</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>HR Admin</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2010-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>9.3068</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>41000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2020-05-31T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>General Office</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31659</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Yeung Chau Ha</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit B</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>HR Admin</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>1.3068</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Statutory Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>42500</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-11-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2048-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>General Office</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31660</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan King</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>福利服務助理</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>16000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-12-14T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31662</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Chan Kit</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>1.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31663</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Lee Kit</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>1.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL14</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31664</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2004-08-02T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>15.5562</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL17</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>62585</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-04-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31665</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff B</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-08-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.5151</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL21</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2020-12-31T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31666</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff Y</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31667</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff D</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>1.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31670</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff F</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31671</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff CA</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-10-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.3479</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>10000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2020-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2021-10-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31672</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff G</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-03-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.9781</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>6635</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-08-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31673</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff AA</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>62585</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-10-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31674</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff BB</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.1397</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>68500</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2019-02-18T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2045-01-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>DWS - CWB</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="19" t="str">
+        <x:v>Data World Solutions Ltd</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>S31675</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Staff M</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Unit A</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>保健員</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2017-08-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>2.5151</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>AL18</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Bank Holiday</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Monthly</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c s="19" t="n">
+        <x:v/>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2018-09-01T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="22" t="d">
+        <x:v>2020-08-17T00:00:00.0000000</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>Active</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>No</x:v>
+      </x:c>
+      <x:c s="19" t="str">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c s="19" t="str">
         <x:v>DWS - CWB</x:v>
       </x:c>
     </x:row>
